--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="indoor_raw" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -422,7 +422,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1355,11 +1355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164870912"/>
-        <c:axId val="164871488"/>
+        <c:axId val="107418112"/>
+        <c:axId val="107418688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164870912"/>
+        <c:axId val="107418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,12 +1407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164871488"/>
+        <c:crossAx val="107418688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164871488"/>
+        <c:axId val="107418688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164870912"/>
+        <c:crossAx val="107418112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2044,11 +2044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242978176"/>
-        <c:axId val="242978752"/>
+        <c:axId val="143159232"/>
+        <c:axId val="143159808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242978176"/>
+        <c:axId val="143159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,12 +2104,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242978752"/>
+        <c:crossAx val="143159808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242978752"/>
+        <c:axId val="143159808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242978176"/>
+        <c:crossAx val="143159232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3108,11 +3108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67339968"/>
-        <c:axId val="67339392"/>
+        <c:axId val="107420992"/>
+        <c:axId val="143156928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67339968"/>
+        <c:axId val="107420992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,12 +3168,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67339392"/>
+        <c:crossAx val="143156928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67339392"/>
+        <c:axId val="143156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,7 +3218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67339968"/>
+        <c:crossAx val="107420992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3809,11 +3809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69568768"/>
-        <c:axId val="69568192"/>
+        <c:axId val="143483456"/>
+        <c:axId val="143484032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69568768"/>
+        <c:axId val="143483456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,12 +3869,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69568192"/>
+        <c:crossAx val="143484032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69568192"/>
+        <c:axId val="143484032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,7 +3919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69568768"/>
+        <c:crossAx val="143483456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4653,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,7 +4726,7 @@
         <v>8.3540603740634906E-2</v>
       </c>
       <c r="S2">
-        <f>AVERAGE(P2:R2)</f>
+        <f t="shared" ref="S2:S46" si="1">AVERAGE(P2:R2)</f>
         <v>0.11932712603211997</v>
       </c>
     </row>
@@ -4744,15 +4744,15 @@
         <v>1.38140100790471E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F48" si="1">DEGREES(B3)</f>
+        <f t="shared" ref="F3:F46" si="2">DEGREES(B3)</f>
         <v>0.5221939702855064</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G48" si="2">DEGREES(C3)</f>
+        <f t="shared" ref="G3:G46" si="3">DEGREES(C3)</f>
         <v>0.89671110866336112</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H48" si="3">DEGREES(D3)</f>
+        <f t="shared" ref="H3:H46" si="4">DEGREES(D3)</f>
         <v>0.79148447568057956</v>
       </c>
       <c r="M3">
@@ -4768,7 +4768,7 @@
         <v>0.10070645647575101</v>
       </c>
       <c r="S3">
-        <f>AVERAGE(P3:R3)</f>
+        <f t="shared" si="1"/>
         <v>0.13174304369783232</v>
       </c>
     </row>
@@ -4786,15 +4786,15 @@
         <v>1.3991949853678E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79223413596466918</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13986715588413692</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80167967377443916</v>
       </c>
       <c r="M4">
@@ -4810,7 +4810,7 @@
         <v>0.22080448169168315</v>
       </c>
       <c r="S4">
-        <f>AVERAGE(P4:R4)</f>
+        <f t="shared" si="1"/>
         <v>0.18633797767235247</v>
       </c>
     </row>
@@ -4828,15 +4828,15 @@
         <v>1.3595622848267401E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38211380524750166</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82049937985572852</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7789718090573533</v>
       </c>
       <c r="M5">
@@ -4852,7 +4852,7 @@
         <v>0.20327388263342969</v>
       </c>
       <c r="S5">
-        <f>AVERAGE(P5:R5)</f>
+        <f t="shared" si="1"/>
         <v>0.18948209601327082</v>
       </c>
     </row>
@@ -4870,15 +4870,15 @@
         <v>2.8041819448713302E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5975582711579506</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24526499101386617</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.606677904279141</v>
       </c>
       <c r="M6">
@@ -4894,7 +4894,7 @@
         <v>0.36082938096622763</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(P6:R6)</f>
+        <f t="shared" si="1"/>
         <v>0.26698819368209364</v>
       </c>
     </row>
@@ -4912,15 +4912,15 @@
         <v>1.67959323504887E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73618290746435311</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67926871563659652</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96233603667024714</v>
       </c>
       <c r="M7">
@@ -4936,7 +4936,7 @@
         <v>0.37585377545119281</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(P7:R7)</f>
+        <f t="shared" si="1"/>
         <v>0.29672634528668573</v>
       </c>
     </row>
@@ -4954,15 +4954,15 @@
         <v>1.07966118754101E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51902577098031477</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47952096146682643</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61860029350182333</v>
       </c>
       <c r="M8">
@@ -4978,7 +4978,7 @@
         <v>0.30057153446422519</v>
       </c>
       <c r="S8">
-        <f>AVERAGE(P8:R8)</f>
+        <f t="shared" si="1"/>
         <v>0.30544038885822311</v>
       </c>
     </row>
@@ -4996,15 +4996,15 @@
         <v>1.33364430492297E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80167391997521276</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29080939661857852</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76412190043744421</v>
       </c>
       <c r="M9">
@@ -5020,7 +5020,7 @@
         <v>0.24069131017269962</v>
       </c>
       <c r="S9">
-        <f>AVERAGE(P9:R9)</f>
+        <f t="shared" si="1"/>
         <v>0.36769706606408264</v>
       </c>
     </row>
@@ -5038,15 +5038,15 @@
         <v>8.0370031579586297E-3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40165907542328727</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41006182764971399</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46048636088434397</v>
       </c>
       <c r="M10">
@@ -5062,7 +5062,7 @@
         <v>0.16460485421695345</v>
       </c>
       <c r="S10">
-        <f>AVERAGE(P10:R10)</f>
+        <f t="shared" si="1"/>
         <v>0.40859941481279155</v>
       </c>
     </row>
@@ -5080,15 +5080,15 @@
         <v>6.2976607357936301E-3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36755342392235063</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2581776157702629E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36082938096622763</v>
       </c>
       <c r="M11">
@@ -5104,7 +5104,7 @@
         <v>0.46048636088434397</v>
       </c>
       <c r="S11">
-        <f>AVERAGE(P11:R11)</f>
+        <f t="shared" si="1"/>
         <v>0.42406908798578175</v>
       </c>
     </row>
@@ -5122,15 +5122,15 @@
         <v>0.30356210892941099</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.01501038748108</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5979251744210732</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.392827661745812</v>
       </c>
       <c r="M12">
@@ -5146,7 +5146,7 @@
         <v>0.52101241481730487</v>
       </c>
       <c r="S12">
-        <f>AVERAGE(P12:R12)</f>
+        <f t="shared" si="1"/>
         <v>0.51986039736035927</v>
       </c>
     </row>
@@ -5164,15 +5164,15 @@
         <v>2.8728966708511101E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54059522069505395</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52059816952636739</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16460485421695345</v>
       </c>
       <c r="M13">
@@ -5188,7 +5188,7 @@
         <v>0.62622215251381175</v>
       </c>
       <c r="S13">
-        <f>AVERAGE(P13:R13)</f>
+        <f t="shared" si="1"/>
         <v>0.52079185882674006</v>
       </c>
     </row>
@@ -5206,15 +5206,15 @@
         <v>6.5598858876747502E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19006477277087186</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32426048763799253</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37585377545119281</v>
       </c>
       <c r="M14">
@@ -5230,7 +5230,7 @@
         <v>0.61860029350182333</v>
       </c>
       <c r="S14">
-        <f>AVERAGE(P14:R14)</f>
+        <f t="shared" si="1"/>
         <v>0.53904900864965477</v>
       </c>
     </row>
@@ -5248,15 +5248,15 @@
         <v>3.2951155786546699E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8426688010849592</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44524078915906734</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8879621566472065</v>
       </c>
       <c r="M15">
@@ -5272,7 +5272,7 @@
         <v>0.73361885002389793</v>
       </c>
       <c r="S15">
-        <f>AVERAGE(P15:R15)</f>
+        <f t="shared" si="1"/>
         <v>0.57171203449137542</v>
       </c>
     </row>
@@ -5290,15 +5290,15 @@
         <v>3.7393746455608397E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1262494296462906</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87853069153746799</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1425038520886424</v>
       </c>
       <c r="M16">
@@ -5314,7 +5314,7 @@
         <v>0.80167967377443916</v>
       </c>
       <c r="S16">
-        <f>AVERAGE(P16:R16)</f>
+        <f t="shared" si="1"/>
         <v>0.57792698854108171</v>
       </c>
     </row>
@@ -5332,15 +5332,15 @@
         <v>0.172312635652841</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8442952048849985</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80944044772002699</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8727867796832651</v>
       </c>
       <c r="M17">
@@ -5356,7 +5356,7 @@
         <v>0.75535041819380633</v>
       </c>
       <c r="S17">
-        <f>AVERAGE(P17:R17)</f>
+        <f t="shared" si="1"/>
         <v>0.59457532834430549</v>
       </c>
     </row>
@@ -5374,15 +5374,15 @@
         <v>2.5035633402243899E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5586198287023771</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62272640367654897</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4344361313853256</v>
       </c>
       <c r="M18">
@@ -5398,7 +5398,7 @@
         <v>0.76412190043744421</v>
       </c>
       <c r="S18">
-        <f>AVERAGE(P18:R18)</f>
+        <f t="shared" si="1"/>
         <v>0.61886840567707846</v>
       </c>
     </row>
@@ -5416,15 +5416,15 @@
         <v>1.3183351803798E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24094944824843018</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78742611859068012</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75535041819380633</v>
       </c>
       <c r="M19">
@@ -5440,7 +5440,7 @@
         <v>0.7789718090573533</v>
       </c>
       <c r="S19">
-        <f>AVERAGE(P19:R19)</f>
+        <f t="shared" si="1"/>
         <v>0.66052833138686118</v>
       </c>
     </row>
@@ -5458,15 +5458,15 @@
         <v>2.0653394532137801E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1382802935266076</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3421164719488578</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1833523393100676</v>
       </c>
       <c r="M20">
@@ -5482,7 +5482,7 @@
         <v>0.79148447568057956</v>
       </c>
       <c r="S20">
-        <f>AVERAGE(P20:R20)</f>
+        <f t="shared" si="1"/>
         <v>0.73679651820981562</v>
       </c>
     </row>
@@ -5500,15 +5500,15 @@
         <v>0.22989062376102601</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.964624104745319</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.322855126828586</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.171762491136711</v>
       </c>
       <c r="M21">
@@ -5524,7 +5524,7 @@
         <v>0.96233603667024714</v>
       </c>
       <c r="S21">
-        <f>AVERAGE(P21:R21)</f>
+        <f t="shared" si="1"/>
         <v>0.79259588659039881</v>
       </c>
     </row>
@@ -5542,15 +5542,15 @@
         <v>2.3590318385598701E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3523721679672214</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20510804986111758</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3516256808646754</v>
       </c>
       <c r="M22">
@@ -5566,7 +5566,7 @@
         <v>0.99947418981823</v>
       </c>
       <c r="S22">
-        <f>AVERAGE(P22:R22)</f>
+        <f t="shared" si="1"/>
         <v>0.84080035464192682</v>
       </c>
     </row>
@@ -5584,15 +5584,15 @@
         <v>9.0933820823284606E-3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55971033109269053</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47885844617108236</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52101241481730487</v>
       </c>
       <c r="M23">
@@ -5608,7 +5608,7 @@
         <v>1.1297435061002612</v>
       </c>
       <c r="S23">
-        <f>AVERAGE(P23:R23)</f>
+        <f t="shared" si="1"/>
         <v>0.84973543337717816</v>
       </c>
     </row>
@@ -5626,15 +5626,15 @@
         <v>6.0535031066915899E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4710177078000135</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55421934022265595</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4684017928276019</v>
       </c>
       <c r="M24">
@@ -5650,7 +5650,7 @@
         <v>1.1833523393100676</v>
       </c>
       <c r="S24">
-        <f>AVERAGE(P24:R24)</f>
+        <f t="shared" si="1"/>
         <v>0.88791636826184439</v>
       </c>
     </row>
@@ -5668,15 +5668,15 @@
         <v>3.85376520867941E-3</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10233425655722826</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23587519476814595</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22080448169168315</v>
       </c>
       <c r="M25">
@@ -5692,7 +5692,7 @@
         <v>1.3049601943845204</v>
       </c>
       <c r="S25">
-        <f>AVERAGE(P25:R25)</f>
+        <f t="shared" si="1"/>
         <v>0.91180831610522406</v>
       </c>
     </row>
@@ -5710,15 +5710,15 @@
         <v>3.3728101885007897E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0257911427614732</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71583545216637967</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9324778889981886</v>
       </c>
       <c r="M26">
@@ -5734,7 +5734,7 @@
         <v>1.158941318322912</v>
       </c>
       <c r="S26">
-        <f>AVERAGE(P26:R26)</f>
+        <f t="shared" si="1"/>
         <v>0.91383977267185246</v>
       </c>
     </row>
@@ -5752,15 +5752,15 @@
         <v>5.2459629141723401E-3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29214292589308338</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32360670621736076</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30057153446422519</v>
       </c>
       <c r="M27">
@@ -5776,7 +5776,7 @@
         <v>1.3516256808646754</v>
       </c>
       <c r="S27">
-        <f>AVERAGE(P27:R27)</f>
+        <f t="shared" si="1"/>
         <v>0.9697019662310048</v>
       </c>
     </row>
@@ -5794,15 +5794,15 @@
         <v>3.5477985352658698E-3</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21724068575245015</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14793171965393256</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20327388263342969</v>
       </c>
       <c r="M28">
@@ -5818,7 +5818,7 @@
         <v>1.3277259978853828</v>
       </c>
       <c r="S28">
-        <f>AVERAGE(P28:R28)</f>
+        <f t="shared" si="1"/>
         <v>1.0692844723878476</v>
       </c>
     </row>
@@ -5836,15 +5836,15 @@
         <v>2.0227341842138501E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1259063521316346</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45667164756101075</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.158941318322912</v>
       </c>
       <c r="M29">
@@ -5860,7 +5860,7 @@
         <v>1.2658477767884957</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(P29:R29)</f>
+        <f t="shared" si="1"/>
         <v>1.1294183692451483</v>
       </c>
     </row>
@@ -5878,15 +5878,15 @@
         <v>4.1602011308519801E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3774069286726656</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42033357323673193</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3836196672337078</v>
       </c>
       <c r="M30">
@@ -5902,7 +5902,7 @@
         <v>1.606677904279141</v>
       </c>
       <c r="S30">
-        <f>AVERAGE(P30:R30)</f>
+        <f t="shared" si="1"/>
         <v>1.1498337221503192</v>
       </c>
     </row>
@@ -5920,15 +5920,15 @@
         <v>2.2093211534009501E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68681455105876177</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4355927798881873</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2658477767884957</v>
       </c>
       <c r="M31">
@@ -5944,7 +5944,7 @@
         <v>1.4344361313853256</v>
       </c>
       <c r="S31">
-        <f>AVERAGE(P31:R31)</f>
+        <f t="shared" si="1"/>
         <v>1.2052607879214172</v>
       </c>
     </row>
@@ -5962,15 +5962,15 @@
         <v>2.3173190227427198E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87392733670172595</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0062000825764339</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3277259978853828</v>
       </c>
       <c r="M32">
@@ -5986,7 +5986,7 @@
         <v>1.7728717506274243</v>
       </c>
       <c r="S32">
-        <f>AVERAGE(P32:R32)</f>
+        <f t="shared" si="1"/>
         <v>1.2428525899643128</v>
       </c>
     </row>
@@ -6004,15 +6004,15 @@
         <v>1.7576592435182201E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15980398921637115</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13471868540137485</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10070645647575101</v>
       </c>
       <c r="M33">
@@ -6028,7 +6028,7 @@
         <v>1.5690145198911885</v>
       </c>
       <c r="S33">
-        <f>AVERAGE(P33:R33)</f>
+        <f t="shared" si="1"/>
         <v>1.2591859495699727</v>
       </c>
     </row>
@@ -6046,15 +6046,15 @@
         <v>1.2804064387611501E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31833007264556584</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66318718080466266</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73361885002389793</v>
       </c>
       <c r="M34">
@@ -6070,7 +6070,7 @@
         <v>1.7769397586757549</v>
       </c>
       <c r="S34">
-        <f>AVERAGE(P34:R34)</f>
+        <f t="shared" si="1"/>
         <v>1.2673165976336043</v>
       </c>
     </row>
@@ -6088,15 +6088,15 @@
         <v>3.1013449398485399E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7575234384017338</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26748659582332479</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7769397586757549</v>
       </c>
       <c r="M35">
@@ -6112,7 +6112,7 @@
         <v>1.8316419640576369</v>
       </c>
       <c r="S35">
-        <f>AVERAGE(P35:R35)</f>
+        <f t="shared" si="1"/>
         <v>1.3467331572451258</v>
       </c>
     </row>
@@ -6130,15 +6130,15 @@
         <v>0.20646400429115899</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.81311100396694</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.227797408994181</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.829516067254328</v>
       </c>
       <c r="M36">
@@ -6154,7 +6154,7 @@
         <v>1.8879621566472065</v>
       </c>
       <c r="S36">
-        <f>AVERAGE(P36:R36)</f>
+        <f t="shared" si="1"/>
         <v>1.3919572489637444</v>
       </c>
     </row>
@@ -6172,15 +6172,15 @@
         <v>2.27758519994751E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3056675709715853</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1247971829595667</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3049601943845204</v>
       </c>
       <c r="M37">
@@ -6196,7 +6196,7 @@
         <v>1.9324778889981886</v>
       </c>
       <c r="S37">
-        <f>AVERAGE(P37:R37)</f>
+        <f t="shared" si="1"/>
         <v>1.5580348279753471</v>
       </c>
     </row>
@@ -6214,15 +6214,15 @@
         <v>1.4580585943779699E-3</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14308514069235936</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13135563366336558</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3540603740634906E-2</v>
       </c>
       <c r="M38">
@@ -6238,7 +6238,7 @@
         <v>2.1425038520886424</v>
       </c>
       <c r="S38">
-        <f>AVERAGE(P38:R38)</f>
+        <f t="shared" si="1"/>
         <v>1.7157613244241336</v>
       </c>
     </row>
@@ -6256,15 +6256,15 @@
         <v>1.0929638410292101E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35163657333687204</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5845168506295364</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62622215251381175</v>
       </c>
       <c r="M39">
@@ -6280,7 +6280,7 @@
         <v>2.4805611127050176</v>
       </c>
       <c r="S39">
-        <f>AVERAGE(P39:R39)</f>
+        <f t="shared" si="1"/>
         <v>1.7171714020651454</v>
       </c>
     </row>
@@ -6298,15 +6298,15 @@
         <v>3.1968182990501401E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.785941636107814</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4226158715699268</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8316419640576369</v>
       </c>
       <c r="M40">
@@ -6322,7 +6322,7 @@
         <v>2.3836196672337078</v>
       </c>
       <c r="S40">
-        <f>AVERAGE(P40:R40)</f>
+        <f t="shared" si="1"/>
         <v>1.7271200563810352</v>
       </c>
     </row>
@@ -6340,15 +6340,15 @@
         <v>3.7202655564664698E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7619646186847508</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6929452403909115</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1315551505341737</v>
       </c>
       <c r="M41">
@@ -6364,7 +6364,7 @@
         <v>2.1315551505341737</v>
       </c>
       <c r="S41">
-        <f>AVERAGE(P41:R41)</f>
+        <f t="shared" si="1"/>
         <v>1.8621550032032788</v>
       </c>
     </row>
@@ -6382,15 +6382,15 @@
         <v>1.9717743884474202E-2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26564055470904885</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1538222393222244</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1297435061002612</v>
       </c>
       <c r="M42">
@@ -6406,7 +6406,7 @@
         <v>3.4684017928276019</v>
       </c>
       <c r="S42">
-        <f>AVERAGE(P42:R42)</f>
+        <f t="shared" si="1"/>
         <v>2.4978796136167571</v>
       </c>
     </row>
@@ -6424,15 +6424,15 @@
         <v>4.3293958713636699E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4868231697101768</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18412992378024218</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4805611127050176</v>
       </c>
       <c r="M43">
@@ -6448,7 +6448,7 @@
         <v>9.8727867796832651</v>
       </c>
       <c r="S43">
-        <f>AVERAGE(P43:R43)</f>
+        <f t="shared" si="1"/>
         <v>6.8421741440960959</v>
       </c>
     </row>
@@ -6466,15 +6466,15 @@
         <v>2.73844693836993E-2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2112952810372128</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99724804778151677</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5690145198911885</v>
       </c>
       <c r="P44">
@@ -6487,7 +6487,7 @@
         <v>11.829516067254328</v>
       </c>
       <c r="S44">
-        <f>AVERAGE(P44:R44)</f>
+        <f t="shared" si="1"/>
         <v>8.2901414934051498</v>
       </c>
     </row>
@@ -6505,15 +6505,15 @@
         <v>3.0942449264044401E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7625729999643611</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19311301930115249</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7728717506274243</v>
       </c>
       <c r="P45">
@@ -6526,7 +6526,7 @@
         <v>13.171762491136711</v>
       </c>
       <c r="S45">
-        <f>AVERAGE(P45:R45)</f>
+        <f t="shared" si="1"/>
         <v>9.4864139075702045</v>
       </c>
     </row>
@@ -6544,15 +6544,15 @@
         <v>4.2008558434525299E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40873203841693917</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45366784960260931</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24069131017269962</v>
       </c>
       <c r="P46">
@@ -6565,7 +6565,7 @@
         <v>17.392827661745812</v>
       </c>
       <c r="S46">
-        <f>AVERAGE(P46:R46)</f>
+        <f t="shared" si="1"/>
         <v>12.668587741215989</v>
       </c>
     </row>
@@ -6583,15 +6583,15 @@
         <v>3.8114883525360299E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F47:F50" si="4">DEGREES(B49)</f>
+        <f t="shared" ref="F49:F50" si="5">DEGREES(B49)</f>
         <v>2.0723484761619644</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G47:G50" si="5">DEGREES(C49)</f>
+        <f t="shared" ref="G49:G50" si="6">DEGREES(C49)</f>
         <v>0.65250956910261548</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H47:H50" si="6">DEGREES(D49)</f>
+        <f t="shared" ref="H49:H50" si="7">DEGREES(D49)</f>
         <v>2.1838219626358577</v>
       </c>
     </row>
@@ -6609,15 +6609,15 @@
         <v>9.5041069676198991E-3</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5417654584861642</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5943886671552819E-2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54454521728549921</v>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A58" sqref="A2:A58"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6706,7 @@
         <v>5.4208734269196784E-2</v>
       </c>
       <c r="S2">
-        <f>AVERAGE(P2:R2)</f>
+        <f t="shared" ref="S2:S33" si="1">AVERAGE(P2:R2)</f>
         <v>4.4747098386877515E-2</v>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
         <v>9.4612089633616604E-4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H46" si="1">DEGREES(B3)</f>
+        <f t="shared" ref="F3:H46" si="2">DEGREES(B3)</f>
         <v>3.9360791121539396E-2</v>
       </c>
       <c r="G3">
@@ -6748,7 +6748,7 @@
         <v>0.17040101789313633</v>
       </c>
       <c r="S3">
-        <f>AVERAGE(P3:R3)</f>
+        <f t="shared" si="1"/>
         <v>0.15004606318142896</v>
       </c>
     </row>
@@ -6766,7 +6766,7 @@
         <v>3.7305965551388499E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26404691137032593</v>
       </c>
       <c r="G4">
@@ -6790,7 +6790,7 @@
         <v>0.2137474376755</v>
       </c>
       <c r="S4">
-        <f>AVERAGE(P4:R4)</f>
+        <f t="shared" si="1"/>
         <v>0.2468434999191341</v>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
         <v>7.1674747558249902E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4328839802840516</v>
       </c>
       <c r="G5">
@@ -6832,7 +6832,7 @@
         <v>0.3733423545771139</v>
       </c>
       <c r="S5">
-        <f>AVERAGE(P5:R5)</f>
+        <f t="shared" si="1"/>
         <v>0.3129668834447899</v>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
         <v>6.5160533245187599E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40600568413654037</v>
       </c>
       <c r="G6">
@@ -6874,7 +6874,7 @@
         <v>0.61123825081304262</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(P6:R6)</f>
+        <f t="shared" si="1"/>
         <v>0.45894057833126878</v>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
         <v>9.9844713128387205E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2125272628589197</v>
       </c>
       <c r="G7">
@@ -6916,7 +6916,7 @@
         <v>0.65306369724299629</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(P7:R7)</f>
+        <f t="shared" si="1"/>
         <v>0.49440479206807586</v>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
         <v>1.06681199908185E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58428398306226481</v>
       </c>
       <c r="G8">
@@ -6958,7 +6958,7 @@
         <v>0.40442112646190798</v>
       </c>
       <c r="S8">
-        <f>AVERAGE(P8:R8)</f>
+        <f t="shared" si="1"/>
         <v>0.50509211890620687</v>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
         <v>1.45081009221748E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91602039666192703</v>
       </c>
       <c r="G9">
@@ -7000,7 +7000,7 @@
         <v>0.36320813343591263</v>
       </c>
       <c r="S9">
-        <f>AVERAGE(P9:R9)</f>
+        <f t="shared" si="1"/>
         <v>0.53321662840163608</v>
       </c>
     </row>
@@ -7018,7 +7018,7 @@
         <v>1.55413183969499E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70994903270367904</v>
       </c>
       <c r="G10">
@@ -7042,7 +7042,7 @@
         <v>0.74842702352245571</v>
       </c>
       <c r="S10">
-        <f>AVERAGE(P10:R10)</f>
+        <f t="shared" si="1"/>
         <v>0.57172847834609064</v>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
         <v>1.9507055952105501E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87220499347842584</v>
       </c>
       <c r="G11">
@@ -7084,7 +7084,7 @@
         <v>0.78735841795034256</v>
       </c>
       <c r="S11">
-        <f>AVERAGE(P11:R11)</f>
+        <f t="shared" si="1"/>
         <v>0.64549832521988271</v>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>1.9249828978569201E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0878890874830069</v>
       </c>
       <c r="G12">
@@ -7126,7 +7126,7 @@
         <v>0.83626505879321156</v>
       </c>
       <c r="S12">
-        <f>AVERAGE(P12:R12)</f>
+        <f t="shared" si="1"/>
         <v>0.64950553050089044</v>
       </c>
     </row>
@@ -7144,7 +7144,7 @@
         <v>1.37419967865271E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47809286935277479</v>
       </c>
       <c r="G13">
@@ -7168,7 +7168,7 @@
         <v>1.1019338924473081</v>
       </c>
       <c r="S13">
-        <f>AVERAGE(P13:R13)</f>
+        <f t="shared" si="1"/>
         <v>0.74802670809580685</v>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
         <v>2.87820341602791E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6750282882079022</v>
       </c>
       <c r="G14">
@@ -7210,7 +7210,7 @@
         <v>0.92779041164848408</v>
       </c>
       <c r="S14">
-        <f>AVERAGE(P14:R14)</f>
+        <f t="shared" si="1"/>
         <v>0.76844910277508527</v>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
         <v>0.112424284231116</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2846954218854965</v>
       </c>
       <c r="G15">
@@ -7252,7 +7252,7 @@
         <v>0.89045195221425155</v>
       </c>
       <c r="S15">
-        <f>AVERAGE(P15:R15)</f>
+        <f t="shared" si="1"/>
         <v>0.7815133278716121</v>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
         <v>2.6922457108793801E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5909113355679327</v>
       </c>
       <c r="G16">
@@ -7294,7 +7294,7 @@
         <v>1.1011883998377139</v>
       </c>
       <c r="S16">
-        <f>AVERAGE(P16:R16)</f>
+        <f t="shared" si="1"/>
         <v>0.82676981869668531</v>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
         <v>2.20058508789788E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3510419634247388</v>
       </c>
       <c r="G17">
@@ -7336,7 +7336,7 @@
         <v>0.83125295159047363</v>
       </c>
       <c r="S17">
-        <f>AVERAGE(P17:R17)</f>
+        <f t="shared" si="1"/>
         <v>0.85254481764557299</v>
       </c>
     </row>
@@ -7354,15 +7354,15 @@
         <v>2.2255194838341302E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2578223301027343</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7866185780696415</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2751287364782911</v>
       </c>
       <c r="M18">
@@ -7378,7 +7378,7 @@
         <v>1.0248555953410798</v>
       </c>
       <c r="S18">
-        <f>AVERAGE(P18:R18)</f>
+        <f t="shared" si="1"/>
         <v>0.87070166705612306</v>
       </c>
     </row>
@@ -7396,15 +7396,15 @@
         <v>4.0283172755425298E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3132703621987121</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19926197539625487</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3080557842822529</v>
       </c>
       <c r="M19">
@@ -7420,7 +7420,7 @@
         <v>1.1029339568206438</v>
       </c>
       <c r="S19">
-        <f>AVERAGE(P19:R19)</f>
+        <f t="shared" si="1"/>
         <v>0.88271099200292225</v>
       </c>
     </row>
@@ -7438,15 +7438,15 @@
         <v>0.140335512892656</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9995255826248313</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98156244241489732</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0406326045529397</v>
       </c>
       <c r="M20">
@@ -7462,7 +7462,7 @@
         <v>1.138847315754717</v>
       </c>
       <c r="S20">
-        <f>AVERAGE(P20:R20)</f>
+        <f t="shared" si="1"/>
         <v>0.91273151577886669</v>
       </c>
     </row>
@@ -7480,15 +7480,15 @@
         <v>2.47286675998739E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3290432194996444</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.493731948240346</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4168482864546776</v>
       </c>
       <c r="M21">
@@ -7504,7 +7504,7 @@
         <v>0.47478960036264795</v>
       </c>
       <c r="S21">
-        <f>AVERAGE(P21:R21)</f>
+        <f t="shared" si="1"/>
         <v>0.91917592329990605</v>
       </c>
     </row>
@@ -7522,15 +7522,15 @@
         <v>1.92193632619359E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1261250982538198</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25299595799852242</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1011883998377139</v>
       </c>
       <c r="M22">
@@ -7546,7 +7546,7 @@
         <v>0.83750088534402167</v>
       </c>
       <c r="S22">
-        <f>AVERAGE(P22:R22)</f>
+        <f t="shared" si="1"/>
         <v>0.9290984825047488</v>
       </c>
     </row>
@@ -7564,15 +7564,15 @@
         <v>6.6829750211747405E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0563204500182466</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6923453863124549</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8290626330466462</v>
       </c>
       <c r="M23">
@@ -7588,7 +7588,7 @@
         <v>0.55405599328531319</v>
       </c>
       <c r="S23">
-        <f>AVERAGE(P23:R23)</f>
+        <f t="shared" si="1"/>
         <v>0.93503953525311434</v>
       </c>
     </row>
@@ -7606,15 +7606,15 @@
         <v>0.128472330281068</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3615085691592146</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8117177085769364E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3609223093159617</v>
       </c>
       <c r="M24">
@@ -7630,7 +7630,7 @@
         <v>1.1498178352304325</v>
       </c>
       <c r="S24">
-        <f>AVERAGE(P24:R24)</f>
+        <f t="shared" si="1"/>
         <v>0.93961957488961023</v>
       </c>
     </row>
@@ -7648,15 +7648,15 @@
         <v>3.10889441995192E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8120143484082767</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34540498919518686</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7812652921501717</v>
       </c>
       <c r="M25">
@@ -7672,7 +7672,7 @@
         <v>1.2904905306419616</v>
       </c>
       <c r="S25">
-        <f>AVERAGE(P25:R25)</f>
+        <f t="shared" si="1"/>
         <v>1.0236325605100238</v>
       </c>
     </row>
@@ -7690,15 +7690,15 @@
         <v>3.9623355381763002E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.282567711898003</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75597548189223074</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2702510335219968</v>
       </c>
       <c r="M26">
@@ -7714,7 +7714,7 @@
         <v>1.2961093156791998</v>
       </c>
       <c r="S26">
-        <f>AVERAGE(P26:R26)</f>
+        <f t="shared" si="1"/>
         <v>1.0514686885338045</v>
       </c>
     </row>
@@ -7732,15 +7732,15 @@
         <v>2.2523308725511001E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68931104978233571</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.091096101105774</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2904905306419616</v>
       </c>
       <c r="M27">
@@ -7756,7 +7756,7 @@
         <v>1.4168482864546776</v>
       </c>
       <c r="S27">
-        <f>AVERAGE(P27:R27)</f>
+        <f t="shared" si="1"/>
         <v>1.079874484731556</v>
       </c>
     </row>
@@ -7774,15 +7774,15 @@
         <v>2.0068107022924699E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.060285877633633</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60875501180476521</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1498178352304325</v>
       </c>
       <c r="M28">
@@ -7798,7 +7798,7 @@
         <v>1.1176719767811969</v>
       </c>
       <c r="S28">
-        <f>AVERAGE(P28:R28)</f>
+        <f t="shared" si="1"/>
         <v>1.0978944431952768</v>
       </c>
     </row>
@@ -7816,15 +7816,15 @@
         <v>1.9606061753679498E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9307492467062417</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7807538358138444</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1233445913586966</v>
       </c>
       <c r="M29">
@@ -7840,7 +7840,7 @@
         <v>1.0403780906106475</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(P29:R29)</f>
+        <f t="shared" si="1"/>
         <v>1.1126284735052285</v>
       </c>
     </row>
@@ -7858,15 +7858,15 @@
         <v>2.20636788438262E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1752413153469305</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6494185670992942</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.264155678283325</v>
       </c>
       <c r="M30">
@@ -7882,7 +7882,7 @@
         <v>1.2608423799597381</v>
       </c>
       <c r="S30">
-        <f>AVERAGE(P30:R30)</f>
+        <f t="shared" si="1"/>
         <v>1.1275227669553265</v>
       </c>
     </row>
@@ -7900,15 +7900,15 @@
         <v>3.02067655569291E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2380888910079766</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4191373350029473</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.730720179153179</v>
       </c>
       <c r="M31">
@@ -7924,7 +7924,7 @@
         <v>1.5425431664558653</v>
       </c>
       <c r="S31">
-        <f>AVERAGE(P31:R31)</f>
+        <f t="shared" si="1"/>
         <v>1.2251100631707061</v>
       </c>
     </row>
@@ -7942,15 +7942,15 @@
         <v>2.9931852677602601E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6740017014027233</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38623729903544024</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7149688314339813</v>
       </c>
       <c r="M32">
@@ -7966,7 +7966,7 @@
         <v>1.7149688314339813</v>
       </c>
       <c r="S32">
-        <f>AVERAGE(P32:R32)</f>
+        <f t="shared" si="1"/>
         <v>1.2584026106240482</v>
       </c>
     </row>
@@ -7984,15 +7984,15 @@
         <v>2.26213750243726E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48807367539697816</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3702230745252355</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2961093156791998</v>
       </c>
       <c r="M33">
@@ -8008,7 +8008,7 @@
         <v>1.252809165647826</v>
       </c>
       <c r="S33">
-        <f>AVERAGE(P33:R33)</f>
+        <f t="shared" si="1"/>
         <v>1.3032001564781448</v>
       </c>
     </row>
@@ -8026,15 +8026,15 @@
         <v>1.1398111742137699E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15832993941867926</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67182073954255217</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65306369724299629</v>
       </c>
       <c r="M34">
@@ -8050,7 +8050,7 @@
         <v>1.7812652921501717</v>
       </c>
       <c r="S34">
-        <f>AVERAGE(P34:R34)</f>
+        <f t="shared" ref="S34:S65" si="3">AVERAGE(P34:R34)</f>
         <v>1.3128948765845452</v>
       </c>
     </row>
@@ -8068,15 +8068,15 @@
         <v>3.7300950733542601E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8072611723205039</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6817856015078274</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1371870488574034</v>
       </c>
       <c r="M35">
@@ -8092,7 +8092,7 @@
         <v>1.264155678283325</v>
       </c>
       <c r="S35">
-        <f>AVERAGE(P35:R35)</f>
+        <f t="shared" si="3"/>
         <v>1.3629385202431834</v>
       </c>
     </row>
@@ -8110,15 +8110,15 @@
         <v>1.8158023146767701E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3130879621765004</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98441936772853789</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0403780906106475</v>
       </c>
       <c r="M36">
@@ -8134,7 +8134,7 @@
         <v>1.9555509710361678</v>
       </c>
       <c r="S36">
-        <f>AVERAGE(P36:R36)</f>
+        <f t="shared" si="3"/>
         <v>1.3713318226647573</v>
       </c>
     </row>
@@ -8152,15 +8152,15 @@
         <v>2.974058810985E-3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10242954395513325</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17730762769601735</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17040101789313633</v>
       </c>
       <c r="M37">
@@ -8176,7 +8176,7 @@
         <v>1.7825328603590078</v>
       </c>
       <c r="S37">
-        <f>AVERAGE(P37:R37)</f>
+        <f t="shared" si="3"/>
         <v>1.4075346982000436</v>
       </c>
     </row>
@@ -8194,15 +8194,15 @@
         <v>5.2788093584982897E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3344797538278286</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6134977285179826</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0245349709611355</v>
       </c>
       <c r="M38">
@@ -8218,7 +8218,7 @@
         <v>1.2751287364782911</v>
       </c>
       <c r="S38">
-        <f>AVERAGE(P38:R38)</f>
+        <f t="shared" si="3"/>
         <v>1.4398565482168888</v>
       </c>
     </row>
@@ -8236,15 +8236,15 @@
         <v>2.1397823334618302E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6431849009511346</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4528574175881219</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2260049678401781</v>
       </c>
       <c r="M39">
@@ -8260,7 +8260,7 @@
         <v>1.2260049678401781</v>
       </c>
       <c r="S39">
-        <f>AVERAGE(P39:R39)</f>
+        <f t="shared" si="3"/>
         <v>1.4406824287931448</v>
       </c>
     </row>
@@ -8278,15 +8278,15 @@
         <v>2.1865644839717601E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5351167917944086</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1216745119921996</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.252809165647826</v>
       </c>
       <c r="M40">
@@ -8302,7 +8302,7 @@
         <v>2.3080557842822529</v>
       </c>
       <c r="S40">
-        <f>AVERAGE(P40:R40)</f>
+        <f t="shared" si="3"/>
         <v>1.6068627072924067</v>
       </c>
     </row>
@@ -8320,15 +8320,15 @@
         <v>4.0902636128903103E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8920431819722854</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4616163298574727</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3435484211454671</v>
       </c>
       <c r="M41">
@@ -8344,7 +8344,7 @@
         <v>1.1233445913586966</v>
       </c>
       <c r="S41">
-        <f>AVERAGE(P41:R41)</f>
+        <f t="shared" si="3"/>
         <v>1.6116158912929277</v>
       </c>
     </row>
@@ -8362,15 +8362,15 @@
         <v>8.2866417805562698E-3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.093993371411736</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1887447981253343</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47478960036264795</v>
       </c>
       <c r="M42">
@@ -8386,7 +8386,7 @@
         <v>2.2702510335219968</v>
       </c>
       <c r="S42">
-        <f>AVERAGE(P42:R42)</f>
+        <f t="shared" si="3"/>
         <v>1.7695980757707435</v>
       </c>
     </row>
@@ -8404,15 +8404,15 @@
         <v>3.1111067438256999E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90347527710874764</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5365959571323755</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7825328603590078</v>
       </c>
       <c r="M43">
@@ -8428,7 +8428,7 @@
         <v>1.730720179153179</v>
       </c>
       <c r="S43">
-        <f>AVERAGE(P43:R43)</f>
+        <f t="shared" si="3"/>
         <v>1.7959821350547009</v>
       </c>
     </row>
@@ -8446,15 +8446,15 @@
         <v>9.6701013232363096E-3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1193196769126901</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1317429355613398</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55405599328531319</v>
       </c>
       <c r="P44">
@@ -8467,7 +8467,7 @@
         <v>1.6490890831853549</v>
       </c>
       <c r="S44">
-        <f>AVERAGE(P44:R44)</f>
+        <f t="shared" si="3"/>
         <v>1.875119323250799</v>
       </c>
     </row>
@@ -8485,15 +8485,15 @@
         <v>1.6192997451699599E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76783683615708054</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60972006051969119</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92779041164848408</v>
       </c>
       <c r="P45">
@@ -8506,7 +8506,7 @@
         <v>2.1371870488574034</v>
       </c>
       <c r="S45">
-        <f>AVERAGE(P45:R45)</f>
+        <f t="shared" si="3"/>
         <v>1.8754112742285782</v>
       </c>
     </row>
@@ -8524,15 +8524,15 @@
         <v>9.0608244143522698E-2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9720147986305818</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.493578453512999</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1914699785148093</v>
       </c>
       <c r="P46">
@@ -8545,7 +8545,7 @@
         <v>2.3435484211454671</v>
       </c>
       <c r="S46">
-        <f>AVERAGE(P46:R46)</f>
+        <f t="shared" si="3"/>
         <v>1.8990693109917416</v>
       </c>
     </row>
@@ -8563,15 +8563,15 @@
         <v>1.30625157713679E-2</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F58" si="2">DEGREES(B47)</f>
+        <f t="shared" ref="F47:F58" si="4">DEGREES(B47)</f>
         <v>0.76842229237783799</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G58" si="3">DEGREES(C47)</f>
+        <f t="shared" ref="G47:G58" si="5">DEGREES(C47)</f>
         <v>0.19833611913797836</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H58" si="4">DEGREES(D47)</f>
+        <f t="shared" ref="H47:H58" si="6">DEGREES(D47)</f>
         <v>0.74842702352245571</v>
       </c>
       <c r="P47">
@@ -8584,7 +8584,7 @@
         <v>2.5346463850280969</v>
       </c>
       <c r="S47">
-        <f>AVERAGE(P47:R47)</f>
+        <f t="shared" si="3"/>
         <v>1.9862803696006617</v>
       </c>
     </row>
@@ -8602,15 +8602,15 @@
         <v>4.5742487584896997E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1865733573542485</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4484348385946513</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6208514830441638</v>
       </c>
       <c r="P48">
@@ -8623,7 +8623,7 @@
         <v>2.354537835542621</v>
       </c>
       <c r="S48">
-        <f>AVERAGE(P48:R48)</f>
+        <f t="shared" si="3"/>
         <v>2.0755117434540344</v>
       </c>
     </row>
@@ -8641,15 +8641,15 @@
         <v>1.7887104496188501E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0530864908570623</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53416291497022705</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0248555953410798</v>
       </c>
       <c r="P49">
@@ -8662,7 +8662,7 @@
         <v>2.6208514830441638</v>
       </c>
       <c r="S49">
-        <f>AVERAGE(P49:R49)</f>
+        <f t="shared" si="3"/>
         <v>2.0852865596643544</v>
       </c>
     </row>
@@ -8680,15 +8680,15 @@
         <v>1.9232374562522601E-2</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1022539675503533</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9892264289759123E-2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1019338924473081</v>
       </c>
       <c r="P50">
@@ -8701,7 +8701,7 @@
         <v>2.4497334415175787</v>
       </c>
       <c r="S50">
-        <f>AVERAGE(P50:R50)</f>
+        <f t="shared" si="3"/>
         <v>2.1253262686538346</v>
       </c>
     </row>
@@ -8719,15 +8719,15 @@
         <v>1.9876635337419301E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70447365806390816</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89487357351797503</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.138847315754717</v>
       </c>
       <c r="P51">
@@ -8740,7 +8740,7 @@
         <v>3.0245349709611355</v>
       </c>
       <c r="S51">
-        <f>AVERAGE(P51:R51)</f>
+        <f t="shared" si="3"/>
         <v>2.6575041511023154</v>
       </c>
     </row>
@@ -8758,15 +8758,15 @@
         <v>1.45955786953255E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78276622975554111</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3294853029539187</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.83626505879321156</v>
       </c>
       <c r="P52">
@@ -8779,7 +8779,7 @@
         <v>3.8290626330466462</v>
       </c>
       <c r="S52">
-        <f>AVERAGE(P52:R52)</f>
+        <f t="shared" si="3"/>
         <v>2.8592428231257827</v>
       </c>
     </row>
@@ -8797,15 +8797,15 @@
         <v>7.0584802213846604E-3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49216578561843627</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61868944463827635</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40442112646190798</v>
       </c>
       <c r="P53">
@@ -8818,7 +8818,7 @@
         <v>4.1066605327533221</v>
       </c>
       <c r="S53">
-        <f>AVERAGE(P53:R53)</f>
+        <f t="shared" si="3"/>
         <v>3.4254890326633709</v>
       </c>
     </row>
@@ -8836,15 +8836,15 @@
         <v>3.4130803135153397E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9488712678292239</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2095732291288798</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9555509710361678</v>
       </c>
       <c r="P54">
@@ -8857,7 +8857,7 @@
         <v>5.1914699785148093</v>
       </c>
       <c r="S54">
-        <f>AVERAGE(P54:R54)</f>
+        <f t="shared" si="3"/>
         <v>3.885687743552797</v>
       </c>
     </row>
@@ -8875,15 +8875,15 @@
         <v>4.1094437592999501E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4963573400823142</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3756400547371683</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.354537835542621</v>
       </c>
       <c r="P55">
@@ -8896,7 +8896,7 @@
         <v>5.7206806689510294</v>
       </c>
       <c r="S55">
-        <f>AVERAGE(P55:R55)</f>
+        <f t="shared" si="3"/>
         <v>4.236349818923407</v>
       </c>
     </row>
@@ -8914,15 +8914,15 @@
         <v>1.46171479376207E-2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.82510000695140395</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.124694555218821</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.83750088534402167</v>
       </c>
       <c r="P56">
@@ -8935,7 +8935,7 @@
         <v>7.3609223093159617</v>
       </c>
       <c r="S56">
-        <f>AVERAGE(P56:R56)</f>
+        <f t="shared" si="3"/>
         <v>4.9401826851869819</v>
       </c>
     </row>
@@ -8953,15 +8953,15 @@
         <v>4.2755914350693702E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5586719570181815</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.367573407425744</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4497334415175787</v>
       </c>
       <c r="P57">
@@ -8974,7 +8974,7 @@
         <v>6.4414370012221198</v>
       </c>
       <c r="S57">
-        <f>AVERAGE(P57:R57)</f>
+        <f t="shared" si="3"/>
         <v>5.26937938319859</v>
       </c>
     </row>
@@ -8992,15 +8992,15 @@
         <v>4.42379247925122E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6049285763573686</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81926614741651949</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5346463850280969</v>
       </c>
       <c r="P58">
@@ -9013,7 +9013,7 @@
         <v>8.0406326045529397</v>
       </c>
       <c r="S58">
-        <f>AVERAGE(P58:R58)</f>
+        <f t="shared" si="3"/>
         <v>5.6739068765308893</v>
       </c>
     </row>
@@ -9030,6 +9030,18 @@
       <c r="D61">
         <v>3.2091328011080902E-2</v>
       </c>
+      <c r="F61">
+        <f t="shared" ref="F59:F62" si="7">DEGREES(B61)</f>
+        <v>1.6577596809289541</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G59:G62" si="8">DEGREES(C61)</f>
+        <v>1.0955506007778368</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H59:H62" si="9">DEGREES(D61)</f>
+        <v>1.838697654004894</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -9043,6 +9055,18 @@
       </c>
       <c r="D62">
         <v>4.0092133943642203E-3</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="7"/>
+        <v>0.21497397744863272</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>0.13306886233634188</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>0.22971100666438873</v>
       </c>
     </row>
   </sheetData>
@@ -9057,7 +9081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
@@ -11057,7 +11081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
